--- a/client/src/Components/Note/Notesdata.xlsx
+++ b/client/src/Components/Note/Notesdata.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -385,9 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -458,16 +455,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>